--- a/week1/5-Sorting/graphs.xlsx
+++ b/week1/5-Sorting/graphs.xlsx
@@ -1371,7 +1371,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
